--- a/report/references.xlsx
+++ b/report/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\IN3007-IndividualProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\IN3007-IndividualProject\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB2C257-E3CA-48FB-9529-82D8333EFC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E2D8E8-D701-4D76-B2F2-794695BC6004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="2715" windowWidth="27225" windowHeight="11385" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>reference</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Coifman, B., Beymer, D., McLauchlan, P., &amp; Malik, J. (1998). A real-time computer vision system for vehicle tracking and traffic surveillance. Transportation Research Part C: Emerging Technologies</t>
-  </si>
-  <si>
-    <t>(Coifman, 1998)</t>
   </si>
   <si>
     <t>SZELISKI, R., 2020. COMPUTER VISION. SPRINGER NATURE, p.5.</t>
@@ -85,38 +82,74 @@
     <t xml:space="preserve">Chavdarova, T., Baqué, P., Bouquet, S., Maksai, A., Jose, C., Lettry, L., Fua, P., Van Gool, L. and Fleuret, F., 2017. The wildtrack multi-camera person dataset p.3., p.5., p.7. </t>
   </si>
   <si>
-    <t>(Chavdarova, T. 2017)</t>
-  </si>
-  <si>
     <t>WILDTRACK dataset</t>
   </si>
   <si>
     <t>López-Cifuentes A.,Escudero-Viñolo M., 2018. Semantic Driven Multi-Camera Pedestrian Detection</t>
   </si>
   <si>
-    <t>(López-Cifuentes A. 2018)</t>
-  </si>
-  <si>
     <t>Y. C. Hou, M. Z. Baharuddin, S. Yussof and S. Dzulkifly, "Social Distancing Detection with Deep Learning Model," 2020</t>
   </si>
   <si>
-    <t>(Y. C. Hou, 2020)</t>
-  </si>
-  <si>
     <t>Existing systems</t>
+  </si>
+  <si>
+    <t>REDMON J., FARHADI A. "YOLOv3: An Incremental Improvement"</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Deep learning architectures for object detection</t>
+  </si>
+  <si>
+    <t>Lin, T., Maire, M., Belongie, S., Bourdev, L., Girshick, R., Hays, J., Perona, P., Ramanan, D., Zitnick, C. and Dollar, P., 2021. Microsoft COCO: Common Objects in Context. [online] Arxiv.org. Available at: &lt;https://arxiv.org/pdf/1405.0312.pdf&gt; [Accessed 11 February 2021].</t>
+  </si>
+  <si>
+    <t>(Lin et al., 2021)</t>
+  </si>
+  <si>
+    <t>Pre-trained models (With COCO dataset)</t>
+  </si>
+  <si>
+    <t>(Y. C. Hou et al., 2020)</t>
+  </si>
+  <si>
+    <t>(López-Cifuentes A. et al., 2018)</t>
+  </si>
+  <si>
+    <t>(Coifman et al., 1998)</t>
+  </si>
+  <si>
+    <t>(Redmon et al.. 2018)</t>
+  </si>
+  <si>
+    <t>(Chavdarova et al. 2017)</t>
+  </si>
+  <si>
+    <t>Redmon, J., 2021. YOLO: Real-Time Object Detection. [online] Pjreddie.com. Available at: &lt;https://pjreddie.com/darknet/yolo/&gt; [Accessed 11 February 2021].</t>
+  </si>
+  <si>
+    <t>(Redmon, 2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C281B7-8BDC-4908-A351-99DAA93660BA}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +522,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -519,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -530,61 +564,104 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/references.xlsx
+++ b/report/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\IN3007-IndividualProject\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E2D8E8-D701-4D76-B2F2-794695BC6004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A565B4-44C1-4AB7-9CF1-3DD5D06F44AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
+    <workbookView xWindow="31680" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>reference</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>(Redmon, 2021)</t>
+  </si>
+  <si>
+    <t>Docs.opencv.org. 2021. OpenCV: Basic concepts of the homography explained with code. [online] Available at: &lt;https://docs.opencv.org/master/d9/dab/tutorial_homography.html&gt; [Accessed 15 March 2021].</t>
+  </si>
+  <si>
+    <t>(OpenCV: Basic concepts of the homography explained with code, 2021)</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>Detecting Social Distancing by  bounding box</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C281B7-8BDC-4908-A351-99DAA93660BA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +672,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/report/references.xlsx
+++ b/report/references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\IN3007-IndividualProject\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A565B4-44C1-4AB7-9CF1-3DD5D06F44AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E84B4-56FE-41F3-A420-3561269B927C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>reference</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Hochreiter, Sepp and Jurgen Schmidhuber. 1997. "Long Short-Term Memory. Neural Computation" :1735–1780.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chavdarova, T., Baqué, P., Bouquet, S., Maksai, A., Jose, C., Lettry, L., Fua, P., Van Gool, L. and Fleuret, F., 2017. The wildtrack multi-camera person dataset p.3., p.5., p.7. </t>
-  </si>
-  <si>
     <t>WILDTRACK dataset</t>
   </si>
   <si>
@@ -143,6 +140,50 @@
   </si>
   <si>
     <t>Detecting Social Distancing by  bounding box</t>
+  </si>
+  <si>
+    <t>Docs.opencv.org. 2021. Camera Calibration and 3D Reconstruction — OpenCV 2.4.13.7 documentation. [online] Available at: &lt;https://docs.opencv.org/2.4/modules/calib3d/doc/camera_calibration_and_3d_reconstruction.html&gt; [Accessed 13 March 2021].</t>
+  </si>
+  <si>
+    <t>(Camera Calibration and 3D Reconstruction — OpenCV 2.4.13.7 documentation, 2021)</t>
+  </si>
+  <si>
+    <t>Detecting SD by calibrated cameras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remondino, Fabio &amp; Fraser, Clive. (2005). Digital camera calibration methods: Considerations and comparisons. Ine. Arch. Photogramm. Remote Sens. Spat. Inf. Sci.. 36. </t>
+  </si>
+  <si>
+    <t>(Remondino et al. (2005))</t>
+  </si>
+  <si>
+    <t>Wikipedia. Pinhole camera model — wikipedia, the free encyclopedia,
+2017b. URL https://en.wikipedia.org/w/index.php?title=Pinhole_
+camera_model&amp;oldid=782167557. [Online; accessed 20/03.2021].</t>
+  </si>
+  <si>
+    <t>Robert Collins (date?) URL http://www.cse.psu.edu/~rtc12/CSE486/lecture16.pdf [Online; accessed 20/03.2021]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavdarov, T., Baqué, P., Bouquet, S., Maksai, A., Jose, C., Lettry, L., Fua, P., Van Gool, L. and Fleuret, F., 2017. The wildtrack multi-camera person dataset p.3., p.5., p.7. </t>
+  </si>
+  <si>
+    <t>Kriegman D.URL https://cseweb.ucsd.edu/classes/wi07/cse252a/homography_estimation/homography_estimation.pdf [Accessed 21 February 2021].</t>
+  </si>
+  <si>
+    <t>(OpenCV: camera calibration, 2021)</t>
+  </si>
+  <si>
+    <t>(Wikipedia, 2017b)</t>
+  </si>
+  <si>
+    <t>(Collins R.)</t>
+  </si>
+  <si>
+    <t>(Kriegman D)</t>
+  </si>
+  <si>
+    <t>Doc.opencv.org. 2021. OpenCV: Camera Calibration [online Available at: &lt;https://opencv-python-tutroals.readthedocs.io/en/latest/py_tutorials/py_calib3d/py_calibration/py_calibration.html/ [Accessed 01/04/2021]</t>
   </si>
 </sst>
 </file>
@@ -184,12 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C281B7-8BDC-4908-A351-99DAA93660BA}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="241.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -565,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -590,100 +632,154 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/report/references.xlsx
+++ b/report/references.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\IN3007-IndividualProject\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E84B4-56FE-41F3-A420-3561269B927C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15784C-19F3-43FF-A639-58B91DA35C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
+    <workbookView xWindow="4845" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{64E3EF4A-D857-422D-A798-7481F9C38A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>reference</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Doc.opencv.org. 2021. OpenCV: Camera Calibration [online Available at: &lt;https://opencv-python-tutroals.readthedocs.io/en/latest/py_tutorials/py_calib3d/py_calibration/py_calibration.html/ [Accessed 01/04/2021]</t>
+  </si>
+  <si>
+    <t>Lewis, K. and Kuhfeld, M., 2021. How is COVID-19 affecting student learning?. [online] Brookings. Available at: &lt;https://www.brookings.edu/blog/brown-center-chalkboard/2020/12/03/how-is-covid-19-affecting-student-learning/&gt; [Accessed 7 April 2021].</t>
+  </si>
+  <si>
+    <t>(Lewis and Kuhfeld, 2021)</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C281B7-8BDC-4908-A351-99DAA93660BA}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,16 +596,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,96 +622,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
+      <c r="A9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="A10" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -716,73 +704,102 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
+      <c r="A15" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
